--- a/Day 2 Lab Challenge/Build List.xlsx
+++ b/Day 2 Lab Challenge/Build List.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gavin\OneDrive\WestCoast\Day 2 Lab Challenge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gavin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10240" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="10785"/>
   </bookViews>
   <sheets>
     <sheet name="Details" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>Your demo environment build list</t>
   </si>
@@ -49,9 +49,6 @@
     <t>10.0.1.0/24</t>
   </si>
   <si>
-    <t>Gateway</t>
-  </si>
-  <si>
     <t>VNET00</t>
   </si>
   <si>
@@ -104,27 +101,6 @@
   </si>
   <si>
     <t>10.0.255.5</t>
-  </si>
-  <si>
-    <t>Storage</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>LRS</t>
-  </si>
-  <si>
-    <t>VMs in DMZ</t>
-  </si>
-  <si>
-    <t>&lt;uniquename&gt;</t>
-  </si>
-  <si>
-    <t>VMs in LAN</t>
   </si>
   <si>
     <t>&lt;internal load balancer&gt;</t>
@@ -496,8 +472,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:D8" totalsRowShown="0">
-  <autoFilter ref="B4:D8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:D7" totalsRowShown="0">
+  <autoFilter ref="B4:D7"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Virtual Network"/>
     <tableColumn id="2" name="Subnet"/>
@@ -508,8 +484,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B10:D16" totalsRowShown="0">
-  <autoFilter ref="B10:D16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B9:D15" totalsRowShown="0">
+  <autoFilter ref="B9:D15"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Virtual Machine"/>
     <tableColumn id="2" name="OS"/>
@@ -520,18 +496,6 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B18:D20" totalsRowShown="0">
-  <autoFilter ref="B18:D20"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Storage"/>
-    <tableColumn id="2" name="Type"/>
-    <tableColumn id="3" name="Purpose"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table16" displayName="Table16" ref="B8:H14" totalsRowShown="0">
   <autoFilter ref="B8:H14"/>
   <tableColumns count="7">
@@ -547,7 +511,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table38" displayName="Table38" ref="B19:H23" totalsRowShown="0">
   <autoFilter ref="B19:H23"/>
   <tableColumns count="7">
@@ -860,44 +824,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D20"/>
+  <dimension ref="B2:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="27.17578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.41015625" customWidth="1"/>
-    <col min="4" max="4" width="13.8203125" customWidth="1"/>
+    <col min="2" max="2" width="27.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.3984375" customWidth="1"/>
+    <col min="4" max="4" width="13.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.5">
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -905,138 +869,96 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
         <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
       </c>
       <c r="D12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
         <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="3">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1048,55 +970,55 @@
   </sheetPr>
   <dimension ref="B2:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="109" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="109" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="13.703125" customWidth="1"/>
-    <col min="3" max="3" width="30.41015625" customWidth="1"/>
-    <col min="4" max="4" width="15.87890625" customWidth="1"/>
-    <col min="5" max="5" width="16.05859375" customWidth="1"/>
-    <col min="6" max="6" width="13.1171875" customWidth="1"/>
-    <col min="7" max="7" width="8.1171875" customWidth="1"/>
-    <col min="8" max="8" width="60.46875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.73046875" customWidth="1"/>
+    <col min="3" max="3" width="30.3984375" customWidth="1"/>
+    <col min="4" max="4" width="15.86328125" customWidth="1"/>
+    <col min="5" max="5" width="16.06640625" customWidth="1"/>
+    <col min="6" max="6" width="13.1328125" customWidth="1"/>
+    <col min="7" max="7" width="8.1328125" customWidth="1"/>
+    <col min="8" max="8" width="60.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="2:8" ht="14.7" thickTop="1" x14ac:dyDescent="0.5"/>
-    <row r="7" spans="2:8" ht="25.7" x14ac:dyDescent="0.85">
+    <row r="6" spans="2:8" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="7" spans="2:8" ht="25.5" x14ac:dyDescent="0.75">
       <c r="B7" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1105,175 +1027,175 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.5">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>200</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>300</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.5">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>4000</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>4096</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="25.7" x14ac:dyDescent="0.85">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="25.5" x14ac:dyDescent="0.75">
       <c r="B18" s="4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1282,129 +1204,129 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B20">
         <v>110</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B21">
         <v>200</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B22">
         <v>300</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F22" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.5">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B23">
         <v>4096</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1429,101 +1351,101 @@
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="C15" t="s">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="C16" t="s">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C24" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="C17" t="s">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="C18" t="s">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B19" t="s">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="C20" t="s">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C28" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B21" t="s">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C29" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="C22" t="s">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C30" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B23" t="s">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="C24" t="s">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C32" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="C25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="C27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="C28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="C29" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="C30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="C32" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
